--- a/DS02.txtmatrix_output.xlsx
+++ b/DS02.txtmatrix_output.xlsx
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004790496662433681</v>
+        <v>0.01788759789489243</v>
       </c>
       <c r="C6" t="n">
-        <v>4.260413295785516</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01788759789489243</v>
+        <v>0.01015613345650671</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.613443495315778</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>644</v>
+        <v>790</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01015613345650671</v>
+        <v>0.01299589515309732</v>
       </c>
       <c r="C8" t="n">
-        <v>2.613443495315778</v>
+        <v>1.992628668720958</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01299589515309732</v>
+        <v>0.01233774968843847</v>
       </c>
       <c r="C9" t="n">
-        <v>1.992628668720958</v>
+        <v>1.875848824035829</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>804</v>
+        <v>885</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01233774968843847</v>
+        <v>0.01333883477063779</v>
       </c>
       <c r="C10" t="n">
-        <v>1.875848824035829</v>
+        <v>1.738818112468957</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>866</v>
+        <v>901</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005385376274666119</v>
+        <v>0.007852863193624523</v>
       </c>
       <c r="C11" t="n">
-        <v>4.258256675703133</v>
+        <v>3.240433286011174</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01333883477063779</v>
+        <v>0.005758668439955364</v>
       </c>
       <c r="C12" t="n">
-        <v>1.738818112468957</v>
+        <v>3.0951508734591</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007852863193624523</v>
+        <v>0.005058905331081971</v>
       </c>
       <c r="C13" t="n">
-        <v>3.240433286011174</v>
+        <v>3.49072093452935</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -666,13 +666,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B14" t="n">
-        <v>0.005758668439955364</v>
+        <v>0.0109402059566581</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0951508734591</v>
+        <v>2.269105884774102</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005058905331081971</v>
+        <v>0.006855195552287687</v>
       </c>
       <c r="C15" t="n">
-        <v>3.49072093452935</v>
+        <v>2.505184892144995</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004804665771920583</v>
+        <v>0.02130035862933227</v>
       </c>
       <c r="C16" t="n">
-        <v>4.702388136132172</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006470488701172131</v>
+        <v>0.01967234224545055</v>
       </c>
       <c r="C17" t="n">
-        <v>3.604304423763552</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0109402059566581</v>
+        <v>0.01733431036171232</v>
       </c>
       <c r="C18" t="n">
-        <v>2.269105884774102</v>
+        <v>1.460055213812824</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006855195552287687</v>
+        <v>0.006003461338686978</v>
       </c>
       <c r="C19" t="n">
-        <v>2.505184892144995</v>
+        <v>1.064737667867909</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02130035862933227</v>
+        <v>0.01128085365691989</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.052219954160737</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01967234224545055</v>
+        <v>0.007117497124114409</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.190594178764059</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005923180204690475</v>
+        <v>0.01603778490870928</v>
       </c>
       <c r="C22" t="n">
-        <v>3.932726140304892</v>
+        <v>1.568395756524159</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01733431036171232</v>
+        <v>0.01604515597226134</v>
       </c>
       <c r="C23" t="n">
-        <v>1.460055213812824</v>
+        <v>1.60770517644602</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B24" t="n">
-        <v>0.006003461338686978</v>
+        <v>0.01188192389674146</v>
       </c>
       <c r="C24" t="n">
-        <v>1.064737667867909</v>
+        <v>1.956853563263295</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01128085365691989</v>
+        <v>0.00641256669258356</v>
       </c>
       <c r="C25" t="n">
-        <v>2.052219954160737</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007117497124114409</v>
+        <v>0.008701833466379455</v>
       </c>
       <c r="C26" t="n">
-        <v>3.190594178764059</v>
+        <v>2.845660259629073</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01603778490870928</v>
+        <v>0.007689435179547843</v>
       </c>
       <c r="C27" t="n">
-        <v>1.568395756524159</v>
+        <v>2.872938417449391</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01604515597226134</v>
+        <v>0.005742280955089709</v>
       </c>
       <c r="C28" t="n">
-        <v>1.60770517644602</v>
+        <v>1.110891726754462</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01188192389674146</v>
+        <v>0.007557200128211194</v>
       </c>
       <c r="C29" t="n">
-        <v>1.956853563263295</v>
+        <v>3.007863978210497</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00641256669258356</v>
+        <v>0.003170832483527943</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>1.971242572605522</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="B31" t="n">
-        <v>0.008701833466379455</v>
+        <v>0.01141952437484541</v>
       </c>
       <c r="C31" t="n">
-        <v>2.845660259629073</v>
+        <v>2.279289252552714</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>927</v>
+        <v>954</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006870839153821947</v>
+        <v>0.009070451283416141</v>
       </c>
       <c r="C32" t="n">
-        <v>3.656022798698331</v>
+        <v>2.773612711919995</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>928</v>
+        <v>955</v>
       </c>
       <c r="B33" t="n">
-        <v>0.00610256898309044</v>
+        <v>0.01150180676095902</v>
       </c>
       <c r="C33" t="n">
-        <v>3.669825222025235</v>
+        <v>2.223017077604883</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>929</v>
+        <v>959</v>
       </c>
       <c r="B34" t="n">
-        <v>0.006133641092157962</v>
+        <v>0.02090215045851716</v>
       </c>
       <c r="C34" t="n">
-        <v>4.07768861874695</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="B35" t="n">
-        <v>0.004888498364717287</v>
+        <v>0.01412925312441898</v>
       </c>
       <c r="C35" t="n">
-        <v>4.840741788411138</v>
+        <v>1.676034404353839</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="B36" t="n">
-        <v>0.007689435179547843</v>
+        <v>0.003952093250422129</v>
       </c>
       <c r="C36" t="n">
-        <v>2.872938417449391</v>
+        <v>1.591446006443216</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="B37" t="n">
-        <v>0.006202447748308275</v>
+        <v>0.007058368772795383</v>
       </c>
       <c r="C37" t="n">
-        <v>3.678701341119186</v>
+        <v>2.740779750293542</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>934</v>
+        <v>973</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005742280955089709</v>
+        <v>0.01250930736528869</v>
       </c>
       <c r="C38" t="n">
-        <v>1.110891726754462</v>
+        <v>2.076601722028701</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>935</v>
+        <v>974</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006490435985836073</v>
+        <v>0.01861428935489852</v>
       </c>
       <c r="C39" t="n">
-        <v>3.856276877589589</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>938</v>
+        <v>976</v>
       </c>
       <c r="B40" t="n">
-        <v>0.007557200128211194</v>
+        <v>0.01766758933678873</v>
       </c>
       <c r="C40" t="n">
-        <v>3.007863978210497</v>
+        <v>1.484909050953085</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>939</v>
+        <v>978</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005159599134650041</v>
+        <v>0.006211394155975453</v>
       </c>
       <c r="C41" t="n">
-        <v>4.589021886633269</v>
+        <v>2.87320100601272</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>942</v>
+        <v>980</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006097257708593097</v>
+        <v>0.007513643862112366</v>
       </c>
       <c r="C42" t="n">
-        <v>3.821873801902143</v>
+        <v>2.710775803863541</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>943</v>
+        <v>983</v>
       </c>
       <c r="B43" t="n">
-        <v>0.006272482127725269</v>
+        <v>0.00756809521397553</v>
       </c>
       <c r="C43" t="n">
-        <v>4.022572544939934</v>
+        <v>3.409312883095245</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>945</v>
+        <v>984</v>
       </c>
       <c r="B44" t="n">
-        <v>0.003170832483527943</v>
+        <v>0.004977967121496425</v>
       </c>
       <c r="C44" t="n">
-        <v>1.971242572605522</v>
+        <v>1.273780352354575</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01141952437484541</v>
+        <v>0.01068417825329953</v>
       </c>
       <c r="C45" t="n">
-        <v>2.279289252552714</v>
+        <v>2.465817881682559</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>954</v>
+        <v>986</v>
       </c>
       <c r="B46" t="n">
-        <v>0.009070451283416141</v>
+        <v>0.006911361444183951</v>
       </c>
       <c r="C46" t="n">
-        <v>2.773612711919995</v>
+        <v>2.48523257879093</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>955</v>
+        <v>991</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01150180676095902</v>
+        <v>0.02031637978940728</v>
       </c>
       <c r="C47" t="n">
-        <v>2.223017077604883</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>959</v>
+        <v>993</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02090215045851716</v>
+        <v>0.004967918866077345</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1.276255605652545</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>963</v>
+        <v>994</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01412925312441898</v>
+        <v>0.006126199317137542</v>
       </c>
       <c r="C49" t="n">
-        <v>1.676034404353839</v>
+        <v>1.044407469066944</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>964</v>
+        <v>995</v>
       </c>
       <c r="B50" t="n">
-        <v>0.003952093250422129</v>
+        <v>0.01488507764229058</v>
       </c>
       <c r="C50" t="n">
-        <v>1.591446006443216</v>
+        <v>1.765989638888825</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="B51" t="n">
-        <v>0.007058368772795383</v>
+        <v>0.01714311293328929</v>
       </c>
       <c r="C51" t="n">
-        <v>2.740779750293542</v>
+        <v>1.553423316330236</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>966</v>
+        <v>998</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004806698139508893</v>
+        <v>0.007779104384419098</v>
       </c>
       <c r="C52" t="n">
-        <v>4.7710746671817</v>
+        <v>3.177271316296134</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1329,319 +1329,319 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004932230832561842</v>
+        <v>0.002758823267553977</v>
       </c>
       <c r="C53" t="n">
-        <v>4.70046280922212</v>
+        <v>8.082981943660803</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01250930736528869</v>
+        <v>0.002775470915967234</v>
       </c>
       <c r="C54" t="n">
-        <v>2.076601722028701</v>
+        <v>7.340777424995557</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01861428935489852</v>
+        <v>0.003303675401397604</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>7.453125859733416</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01766758933678873</v>
+        <v>0.00351525002599324</v>
       </c>
       <c r="C56" t="n">
-        <v>1.484909050953085</v>
+        <v>6.938247602145651</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>978</v>
+        <v>941</v>
       </c>
       <c r="B57" t="n">
-        <v>0.006211394155975453</v>
+        <v>0.003587942288971526</v>
       </c>
       <c r="C57" t="n">
-        <v>2.87320100601272</v>
+        <v>6.971256786533518</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007513643862112366</v>
+        <v>0.003745454845279712</v>
       </c>
       <c r="C58" t="n">
-        <v>2.710775803863541</v>
+        <v>6.108751675467105</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>981</v>
+        <v>904</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004374501336933717</v>
+        <v>0.003845367128507369</v>
       </c>
       <c r="C59" t="n">
-        <v>4.675747974293569</v>
+        <v>5.312264959788188</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00756809521397553</v>
+        <v>0.003889233908143905</v>
       </c>
       <c r="C60" t="n">
-        <v>3.409312883095245</v>
+        <v>6.156576299072982</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004977967121496425</v>
+        <v>0.004100289216416828</v>
       </c>
       <c r="C61" t="n">
-        <v>1.273780352354575</v>
+        <v>5.543969954531558</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>985</v>
+        <v>936</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01068417825329953</v>
+        <v>0.004165715684025569</v>
       </c>
       <c r="C62" t="n">
-        <v>2.465817881682559</v>
+        <v>5.868157977488555</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>986</v>
+        <v>906</v>
       </c>
       <c r="B63" t="n">
-        <v>0.006911361444183951</v>
+        <v>0.004289876931965014</v>
       </c>
       <c r="C63" t="n">
-        <v>2.48523257879093</v>
+        <v>5.688332552721565</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>991</v>
+        <v>551</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02031637978940728</v>
+        <v>0.004315052861885268</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>5.080483442872276</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004967918866077345</v>
+        <v>0.004374501336933717</v>
       </c>
       <c r="C65" t="n">
-        <v>1.276255605652545</v>
+        <v>4.675747974293569</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>994</v>
+        <v>947</v>
       </c>
       <c r="B66" t="n">
-        <v>0.006126199317137542</v>
+        <v>0.004473541586781701</v>
       </c>
       <c r="C66" t="n">
-        <v>1.044407469066944</v>
+        <v>5.17729246132451</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01488507764229058</v>
+        <v>0.004690661853235146</v>
       </c>
       <c r="C67" t="n">
-        <v>1.765989638888825</v>
+        <v>4.887863297174929</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>996</v>
+        <v>538</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01714311293328929</v>
+        <v>0.004790496662433681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.553423316330236</v>
+        <v>4.260413295785516</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>998</v>
+        <v>905</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007779104384419098</v>
+        <v>0.004804665771920583</v>
       </c>
       <c r="C69" t="n">
-        <v>3.177271316296134</v>
+        <v>4.702388136132172</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>999</v>
+        <v>966</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326504401929865</v>
+        <v>0.004806698139508893</v>
       </c>
       <c r="C70" t="n">
-        <v>3.751812550906724</v>
+        <v>4.7710746671817</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002758823267553977</v>
+        <v>0.004888498364717287</v>
       </c>
       <c r="C71" t="n">
-        <v>8.082981943660803</v>
+        <v>4.840741788411138</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B72" t="n">
-        <v>0.002775470915967234</v>
+        <v>0.004932230832561842</v>
       </c>
       <c r="C72" t="n">
-        <v>7.340777424995557</v>
+        <v>4.70046280922212</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003303675401397604</v>
+        <v>0.004974109150052319</v>
       </c>
       <c r="C73" t="n">
-        <v>7.453125859733416</v>
+        <v>5.051722533146499</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="B74" t="n">
-        <v>0.00351525002599324</v>
+        <v>0.004978133647170289</v>
       </c>
       <c r="C74" t="n">
-        <v>6.938247602145651</v>
+        <v>4.91865031290179</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003587942288971526</v>
+        <v>0.005159599134650041</v>
       </c>
       <c r="C75" t="n">
-        <v>6.971256786533518</v>
+        <v>4.589021886633269</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>979</v>
+        <v>866</v>
       </c>
       <c r="B76" t="n">
-        <v>0.003745454845279712</v>
+        <v>0.005385376274666119</v>
       </c>
       <c r="C76" t="n">
-        <v>6.108751675467105</v>
+        <v>4.258256675703133</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="B77" t="n">
-        <v>0.003845367128507369</v>
+        <v>0.005923180204690475</v>
       </c>
       <c r="C77" t="n">
-        <v>5.312264959788188</v>
+        <v>3.932726140304892</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>971</v>
+        <v>942</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003889233908143905</v>
+        <v>0.006097257708593097</v>
       </c>
       <c r="C78" t="n">
-        <v>6.156576299072982</v>
+        <v>3.821873801902143</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004100289216416828</v>
+        <v>0.00610256898309044</v>
       </c>
       <c r="C79" t="n">
-        <v>5.543969954531558</v>
+        <v>3.669825222025235</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004165715684025569</v>
+        <v>0.006133641092157962</v>
       </c>
       <c r="C80" t="n">
-        <v>5.868157977488555</v>
+        <v>4.07768861874695</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="B81" t="n">
-        <v>0.004289876931965014</v>
+        <v>0.006202447748308275</v>
       </c>
       <c r="C81" t="n">
-        <v>5.688332552721565</v>
+        <v>3.678701341119186</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>551</v>
+        <v>943</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004315052861885268</v>
+        <v>0.006272482127725269</v>
       </c>
       <c r="C82" t="n">
-        <v>5.080483442872276</v>
+        <v>4.022572544939934</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>947</v>
+        <v>999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.004473541586781701</v>
+        <v>0.006326504401929865</v>
       </c>
       <c r="C83" t="n">
-        <v>5.17729246132451</v>
+        <v>3.751812550906724</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>992</v>
+        <v>907</v>
       </c>
       <c r="B84" t="n">
-        <v>0.004690661853235146</v>
+        <v>0.006470488701172131</v>
       </c>
       <c r="C84" t="n">
-        <v>4.887863297174929</v>
+        <v>3.604304423763552</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004974109150052319</v>
+        <v>0.006490435985836073</v>
       </c>
       <c r="C85" t="n">
-        <v>5.051722533146499</v>
+        <v>3.856276877589589</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="B86" t="n">
-        <v>0.004978133647170289</v>
+        <v>0.006870839153821947</v>
       </c>
       <c r="C86" t="n">
-        <v>4.91865031290179</v>
+        <v>3.656022798698331</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>

--- a/DS02.txtmatrix_output.xlsx
+++ b/DS02.txtmatrix_output.xlsx
@@ -519,7 +519,7 @@
         <v>0.01337947023797167</v>
       </c>
       <c r="C5" t="n">
-        <v>1.967303874768268</v>
+        <v>2.037460643695477</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01788759789489243</v>
+        <v>0.004790496662433681</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.580884579658371</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>644</v>
+        <v>551</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01015613345650671</v>
+        <v>0.004315052861885268</v>
       </c>
       <c r="C7" t="n">
-        <v>2.613443495315778</v>
+        <v>5.864971244107965</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>790</v>
+        <v>552</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01299589515309732</v>
+        <v>0.01788759789489243</v>
       </c>
       <c r="C8" t="n">
-        <v>1.992628668720958</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>804</v>
+        <v>644</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01233774968843847</v>
+        <v>0.01015613345650671</v>
       </c>
       <c r="C9" t="n">
-        <v>1.875848824035829</v>
+        <v>2.721955278386295</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>885</v>
+        <v>790</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01333883477063779</v>
+        <v>0.01299589515309732</v>
       </c>
       <c r="C10" t="n">
-        <v>1.738818112468957</v>
+        <v>2.11759413210559</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>901</v>
+        <v>804</v>
       </c>
       <c r="B11" t="n">
-        <v>0.007852863193624523</v>
+        <v>0.01233774968843847</v>
       </c>
       <c r="C11" t="n">
-        <v>3.240433286011174</v>
+        <v>2.230555167077753</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005758668439955364</v>
+        <v>0.005385376274666119</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0951508734591</v>
+        <v>5.110140854431671</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005058905331081971</v>
+        <v>0.01333883477063779</v>
       </c>
       <c r="C13" t="n">
-        <v>3.49072093452935</v>
+        <v>2.063151076602062</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -666,13 +666,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0109402059566581</v>
+        <v>0.007852863193624523</v>
       </c>
       <c r="C14" t="n">
-        <v>2.269105884774102</v>
+        <v>3.524837250749507</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B15" t="n">
-        <v>0.006855195552287687</v>
+        <v>0.005758668439955364</v>
       </c>
       <c r="C15" t="n">
-        <v>2.505184892144995</v>
+        <v>4.642602579232405</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02130035862933227</v>
+        <v>0.005058905331081971</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.325618863331105</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01967234224545055</v>
+        <v>0.004804665771920583</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.60742472795291</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01733431036171232</v>
+        <v>0.004289876931965014</v>
       </c>
       <c r="C18" t="n">
-        <v>1.460055213812824</v>
+        <v>6.436252195754551</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="B19" t="n">
-        <v>0.006003461338686978</v>
+        <v>0.006470488701172131</v>
       </c>
       <c r="C19" t="n">
-        <v>1.064737667867909</v>
+        <v>4.1637970334661</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01128085365691989</v>
+        <v>0.0109402059566581</v>
       </c>
       <c r="C20" t="n">
-        <v>2.052219954160737</v>
+        <v>2.498914429506379</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B21" t="n">
-        <v>0.007117497124114409</v>
+        <v>0.006855195552287687</v>
       </c>
       <c r="C21" t="n">
-        <v>3.190594178764059</v>
+        <v>3.833439935709315</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01603778490870928</v>
+        <v>0.02130035862933227</v>
       </c>
       <c r="C22" t="n">
-        <v>1.568395756524159</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01604515597226134</v>
+        <v>0.01967234224545055</v>
       </c>
       <c r="C23" t="n">
-        <v>1.60770517644602</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01188192389674146</v>
+        <v>0.005923180204690475</v>
       </c>
       <c r="C24" t="n">
-        <v>1.956853563263295</v>
+        <v>4.548536550969973</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00641256669258356</v>
+        <v>0.01733431036171232</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>1.587604625935628</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B26" t="n">
-        <v>0.008701833466379455</v>
+        <v>0.006003461338686978</v>
       </c>
       <c r="C26" t="n">
-        <v>2.845660259629073</v>
+        <v>1.068144913545168</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007689435179547843</v>
+        <v>0.01128085365691989</v>
       </c>
       <c r="C27" t="n">
-        <v>2.872938417449391</v>
+        <v>2.320166866249531</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005742280955089709</v>
+        <v>0.007117497124114409</v>
       </c>
       <c r="C28" t="n">
-        <v>1.110891726754462</v>
+        <v>3.785291541283011</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="B29" t="n">
-        <v>0.007557200128211194</v>
+        <v>0.01603778490870928</v>
       </c>
       <c r="C29" t="n">
-        <v>3.007863978210497</v>
+        <v>1.715949644811216</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003170832483527943</v>
+        <v>0.01604515597226134</v>
       </c>
       <c r="C30" t="n">
-        <v>1.971242572605522</v>
+        <v>1.721972444022413</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>948</v>
+        <v>923</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01141952437484541</v>
+        <v>0.01188192389674146</v>
       </c>
       <c r="C31" t="n">
-        <v>2.279289252552714</v>
+        <v>2.129929561213847</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009070451283416141</v>
+        <v>0.00641256669258356</v>
       </c>
       <c r="C32" t="n">
-        <v>2.773612711919995</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01150180676095902</v>
+        <v>0.008701833466379455</v>
       </c>
       <c r="C33" t="n">
-        <v>2.223017077604883</v>
+        <v>3.172978422254791</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02090215045851716</v>
+        <v>0.006870839153821947</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.005337732633455</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>963</v>
+        <v>928</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01412925312441898</v>
+        <v>0.00610256898309044</v>
       </c>
       <c r="C35" t="n">
-        <v>1.676034404353839</v>
+        <v>4.486203213967177</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>964</v>
+        <v>929</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003952093250422129</v>
+        <v>0.006133641092157962</v>
       </c>
       <c r="C36" t="n">
-        <v>1.591446006443216</v>
+        <v>4.444365693032662</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>965</v>
+        <v>930</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007058368772795383</v>
+        <v>0.004888498364717287</v>
       </c>
       <c r="C37" t="n">
-        <v>2.740779750293542</v>
+        <v>5.511263306022307</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01250930736528869</v>
+        <v>0.007689435179547843</v>
       </c>
       <c r="C38" t="n">
-        <v>2.076601722028701</v>
+        <v>3.291224954867364</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01861428935489852</v>
+        <v>0.006202447748308275</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>4.481533103820174</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>976</v>
+        <v>934</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01766758933678873</v>
+        <v>0.005742280955089709</v>
       </c>
       <c r="C40" t="n">
-        <v>1.484909050953085</v>
+        <v>1.116728133425749</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>978</v>
+        <v>935</v>
       </c>
       <c r="B41" t="n">
-        <v>0.006211394155975453</v>
+        <v>0.006490435985836073</v>
       </c>
       <c r="C41" t="n">
-        <v>2.87320100601272</v>
+        <v>4.200048209835427</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>980</v>
+        <v>936</v>
       </c>
       <c r="B42" t="n">
-        <v>0.007513643862112366</v>
+        <v>0.004165715684025569</v>
       </c>
       <c r="C42" t="n">
-        <v>2.710775803863541</v>
+        <v>6.632549732144919</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>983</v>
+        <v>937</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00756809521397553</v>
+        <v>0.004978133647170289</v>
       </c>
       <c r="C43" t="n">
-        <v>3.409312883095245</v>
+        <v>5.550135533219555</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1176,13 +1176,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>984</v>
+        <v>938</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004977967121496425</v>
+        <v>0.007557200128211194</v>
       </c>
       <c r="C44" t="n">
-        <v>1.273780352354575</v>
+        <v>3.565050706867229</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>985</v>
+        <v>939</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01068417825329953</v>
+        <v>0.005159599134650041</v>
       </c>
       <c r="C45" t="n">
-        <v>2.465817881682559</v>
+        <v>5.221685048763737</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>986</v>
+        <v>942</v>
       </c>
       <c r="B46" t="n">
-        <v>0.006911361444183951</v>
+        <v>0.006097257708593097</v>
       </c>
       <c r="C46" t="n">
-        <v>2.48523257879093</v>
+        <v>4.418675238385664</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02031637978940728</v>
+        <v>0.006272482127725269</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>4.412405126414825</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>993</v>
+        <v>945</v>
       </c>
       <c r="B48" t="n">
-        <v>0.004967918866077345</v>
+        <v>0.003170832483527943</v>
       </c>
       <c r="C48" t="n">
-        <v>1.276255605652545</v>
+        <v>2.022360602742655</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>994</v>
+        <v>947</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006126199317137542</v>
+        <v>0.004473541586781701</v>
       </c>
       <c r="C49" t="n">
-        <v>1.044407469066944</v>
+        <v>5.97629605842438</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>995</v>
+        <v>948</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01488507764229058</v>
+        <v>0.01141952437484541</v>
       </c>
       <c r="C50" t="n">
-        <v>1.765989638888825</v>
+        <v>2.431164656902082</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01714311293328929</v>
+        <v>0.009070451283416141</v>
       </c>
       <c r="C51" t="n">
-        <v>1.553423316330236</v>
+        <v>3.005379025981101</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>998</v>
+        <v>955</v>
       </c>
       <c r="B52" t="n">
-        <v>0.007779104384419098</v>
+        <v>0.01150180676095902</v>
       </c>
       <c r="C52" t="n">
-        <v>3.177271316296134</v>
+        <v>2.402171851648457</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1329,206 +1329,206 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="B53" t="n">
-        <v>0.002758823267553977</v>
+        <v>0.02090215045851716</v>
       </c>
       <c r="C53" t="n">
-        <v>8.082981943660803</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002775470915967234</v>
+        <v>0.01412925312441898</v>
       </c>
       <c r="C54" t="n">
-        <v>7.340777424995557</v>
+        <v>1.852430744025734</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003303675401397604</v>
+        <v>0.003952093250422129</v>
       </c>
       <c r="C55" t="n">
-        <v>7.453125859733416</v>
+        <v>1.622574743624438</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00351525002599324</v>
+        <v>0.007058368772795383</v>
       </c>
       <c r="C56" t="n">
-        <v>6.938247602145651</v>
+        <v>3.708146134086118</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>941</v>
+        <v>966</v>
       </c>
       <c r="B57" t="n">
-        <v>0.003587942288971526</v>
+        <v>0.004806698139508893</v>
       </c>
       <c r="C57" t="n">
-        <v>6.971256786533518</v>
+        <v>5.695669624095413</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B58" t="n">
-        <v>0.003745454845279712</v>
+        <v>0.004932230832561842</v>
       </c>
       <c r="C58" t="n">
-        <v>6.108751675467105</v>
+        <v>5.420510487015169</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="B59" t="n">
-        <v>0.003845367128507369</v>
+        <v>0.01250930736528869</v>
       </c>
       <c r="C59" t="n">
-        <v>5.312264959788188</v>
+        <v>2.212491186563919</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B60" t="n">
-        <v>0.003889233908143905</v>
+        <v>0.01861428935489852</v>
       </c>
       <c r="C60" t="n">
-        <v>6.156576299072982</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="B61" t="n">
-        <v>0.004100289216416828</v>
+        <v>0.01766758933678873</v>
       </c>
       <c r="C61" t="n">
-        <v>5.543969954531558</v>
+        <v>1.566525674110494</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004165715684025569</v>
+        <v>0.004974109150052319</v>
       </c>
       <c r="C62" t="n">
-        <v>5.868157977488555</v>
+        <v>5.564158618318466</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>906</v>
+        <v>978</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004289876931965014</v>
+        <v>0.006211394155975453</v>
       </c>
       <c r="C63" t="n">
-        <v>5.688332552721565</v>
+        <v>4.304220321706899</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>551</v>
+        <v>980</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004315052861885268</v>
+        <v>0.007513643862112366</v>
       </c>
       <c r="C64" t="n">
-        <v>5.080483442872276</v>
+        <v>3.662674439019985</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1539,228 +1539,228 @@
         <v>0.004374501336933717</v>
       </c>
       <c r="C65" t="n">
-        <v>4.675747974293569</v>
+        <v>6.327593153584368</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>947</v>
+        <v>983</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004473541586781701</v>
+        <v>0.00756809521397553</v>
       </c>
       <c r="C66" t="n">
-        <v>5.17729246132451</v>
+        <v>3.64830634951442</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004690661853235146</v>
+        <v>0.004977967121496425</v>
       </c>
       <c r="C67" t="n">
-        <v>4.887863297174929</v>
+        <v>1.288189844583763</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>538</v>
+        <v>985</v>
       </c>
       <c r="B68" t="n">
-        <v>0.004790496662433681</v>
+        <v>0.01068417825329953</v>
       </c>
       <c r="C68" t="n">
-        <v>4.260413295785516</v>
+        <v>2.587427915796592</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>905</v>
+        <v>986</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004804665771920583</v>
+        <v>0.006911361444183951</v>
       </c>
       <c r="C69" t="n">
-        <v>4.702388136132172</v>
+        <v>3.802287090534207</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004806698139508893</v>
+        <v>0.02031637978940728</v>
       </c>
       <c r="C70" t="n">
-        <v>4.7710746671817</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>930</v>
+        <v>992</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004888498364717287</v>
+        <v>0.004690661853235146</v>
       </c>
       <c r="C71" t="n">
-        <v>4.840741788411138</v>
+        <v>5.836567512645276</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004932230832561842</v>
+        <v>0.004967918866077345</v>
       </c>
       <c r="C72" t="n">
-        <v>4.70046280922212</v>
+        <v>1.2907953743711</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004974109150052319</v>
+        <v>0.006126199317137542</v>
       </c>
       <c r="C73" t="n">
-        <v>5.051722533146499</v>
+        <v>1.046744704280993</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>937</v>
+        <v>995</v>
       </c>
       <c r="B74" t="n">
-        <v>0.004978133647170289</v>
+        <v>0.01488507764229058</v>
       </c>
       <c r="C74" t="n">
-        <v>4.91865031290179</v>
+        <v>1.866018136433403</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>939</v>
+        <v>996</v>
       </c>
       <c r="B75" t="n">
-        <v>0.005159599134650041</v>
+        <v>0.01714311293328929</v>
       </c>
       <c r="C75" t="n">
-        <v>4.589021886633269</v>
+        <v>1.590151342375353</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>866</v>
+        <v>998</v>
       </c>
       <c r="B76" t="n">
-        <v>0.005385376274666119</v>
+        <v>0.007779104384419098</v>
       </c>
       <c r="C76" t="n">
-        <v>4.258256675703133</v>
+        <v>3.549345587671844</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>914</v>
+        <v>999</v>
       </c>
       <c r="B77" t="n">
-        <v>0.005923180204690475</v>
+        <v>0.006326504401929865</v>
       </c>
       <c r="C77" t="n">
-        <v>3.932726140304892</v>
+        <v>4.258560485755448</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="B78" t="n">
-        <v>0.006097257708593097</v>
+        <v>0.002758823267553977</v>
       </c>
       <c r="C78" t="n">
-        <v>3.821873801902143</v>
+        <v>9.923565930219956</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00610256898309044</v>
+        <v>0.002775470915967234</v>
       </c>
       <c r="C79" t="n">
-        <v>3.669825222025235</v>
+        <v>9.973105663145141</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>929</v>
+        <v>960</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006133641092157962</v>
+        <v>0.003303675401397604</v>
       </c>
       <c r="C80" t="n">
-        <v>4.07768861874695</v>
+        <v>8.330125685476288</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="B81" t="n">
-        <v>0.006202447748308275</v>
+        <v>0.00351525002599324</v>
       </c>
       <c r="C81" t="n">
-        <v>3.678701341119186</v>
+        <v>7.873332505815212</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006272482127725269</v>
+        <v>0.003587942288971526</v>
       </c>
       <c r="C82" t="n">
-        <v>4.022572544939934</v>
+        <v>7.597709731049291</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>999</v>
+        <v>979</v>
       </c>
       <c r="B83" t="n">
-        <v>0.006326504401929865</v>
+        <v>0.003745454845279712</v>
       </c>
       <c r="C83" t="n">
-        <v>3.751812550906724</v>
+        <v>7.309489959517102</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B84" t="n">
-        <v>0.006470488701172131</v>
+        <v>0.003845367128507369</v>
       </c>
       <c r="C84" t="n">
-        <v>3.604304423763552</v>
+        <v>7.198289210079102</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>935</v>
+        <v>971</v>
       </c>
       <c r="B85" t="n">
-        <v>0.006490435985836073</v>
+        <v>0.003889233908143905</v>
       </c>
       <c r="C85" t="n">
-        <v>3.856276877589589</v>
+        <v>7.141721351490865</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>927</v>
+        <v>957</v>
       </c>
       <c r="B86" t="n">
-        <v>0.006870839153821947</v>
+        <v>0.004100289216416828</v>
       </c>
       <c r="C86" t="n">
-        <v>3.656022798698331</v>
+        <v>6.711729311062512</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
